--- a/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
+++ b/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohsin.pathan\OneDrive - TransForm Solutions (P) Limited\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.125.6\Non Voice Common\RPA\faizandata\Faizan Khan\Documents\UiPath\EClinicalWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Oct22 Billing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1250">
   <si>
     <t>Crown EHR ID</t>
   </si>
@@ -3768,6 +3768,15 @@
   </si>
   <si>
     <t>Casey</t>
+  </si>
+  <si>
+    <t>Diagnoses1</t>
+  </si>
+  <si>
+    <t>Diagnoses2</t>
+  </si>
+  <si>
+    <t>Diagnoses3</t>
   </si>
 </sst>
 </file>
@@ -4157,7 +4166,7 @@
   <dimension ref="A1:XEZ426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,12 +4177,13 @@
     <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="17" width="7.42578125" style="1" customWidth="1"/>
@@ -4204,9 +4214,15 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1249</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6" t="s">
         <v>7</v>

--- a/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
+++ b/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.125.6\Non Voice Common\RPA\faizandata\Faizan Khan\Documents\UiPath\EClinicalWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faizan.khan\Desktop\faizandata\UiPath\EClinicalWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="1250">
   <si>
     <t>Crown EHR ID</t>
   </si>
@@ -4166,7 +4166,7 @@
   <dimension ref="A1:XEZ426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,6 +4270,15 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>1157</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1163</v>
       </c>
       <c r="N2" s="1">
         <v>99454</v>

--- a/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
+++ b/updated TFS_Submission_October 2022 RPM Billing_11072022.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Oct22 Billing" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Oct22 Billing'!$A$1:$S$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$426</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1250">
   <si>
     <t>Crown EHR ID</t>
   </si>
@@ -4165,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEZ426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,15 +4270,6 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="N2" s="1">
         <v>99454</v>
